--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEA\POIExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385DD8EC-6A67-450E-891B-03F306D6BC72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2770A14F-3DE8-464E-BCD8-61F087BD218D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10005" yWindow="4290" windowWidth="20760" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李四</t>
+    <t>女</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,9 +117,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -455,7 +456,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,75 +5,45 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEA\POIExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\H3CIDEA\POIExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2770A14F-3DE8-464E-BCD8-61F087BD218D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9E8D64-6D7B-4626-867B-645C0C20D7F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2745" yWindow="3150" windowWidth="14520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
-    <t>姓名</t>
+    <t>t2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>性别</t>
+    <t>t3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>年龄</t>
+    <t>t4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出生日期</t>
+    <t>t5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>家庭住址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女</t>
+    <t>t6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,9 +87,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -401,69 +370,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+      <c r="D6" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>1.67</v>
-      </c>
-      <c r="G2">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\H3CIDEA\POIExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9E8D64-6D7B-4626-867B-645C0C20D7F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B3FBFB-8CA6-408D-8F2F-86FC6941AEB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="3150" windowWidth="14520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="-120" windowWidth="19605" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,25 +25,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+  <si>
+    <t>t3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>t2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t6</t>
+    <t>t7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -394,37 +406,77 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\H3CIDEA\POIExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\POIExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B3FBFB-8CA6-408D-8F2F-86FC6941AEB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EFDC2A-6493-426D-A2E3-1C85177260E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="-120" windowWidth="19605" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="2805" windowWidth="21600" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>t3</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,10 @@
   </si>
   <si>
     <t>t9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -479,9 +483,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>